--- a/data/Datasets/Tumors/Metadata_GSE133499.xlsx
+++ b/data/Datasets/Tumors/Metadata_GSE133499.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rocco\Google Drive\PhD VUmc-CCA\1_Manuscripts\2_Paper ALL\supplementary material\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glori\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF49E042-FE12-4E95-BC0A-D88D6B0775EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABA4510-907E-488E-93CD-82E5A78CF250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="729" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="729" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_ALL_merged" sheetId="9" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data_ALL_merged!$A$1:$AL$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data_ALL_merged!$A$1:$AM$39</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +26,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="167">
   <si>
     <t>EBF1</t>
   </si>
@@ -531,6 +537,9 @@
   </si>
   <si>
     <t>high gain SHOX,CRLF2,CSF2RA,IL3RA,P2RY8</t>
+  </si>
+  <si>
+    <t>Age</t>
   </si>
 </sst>
 </file>
@@ -867,9 +876,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 3" xfId="6" xr:uid="{DBD32265-DB8E-484B-8EC1-182267099FD6}"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2 10" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Standaard 4 9" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Standaard 6" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
@@ -902,9 +911,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -942,7 +951,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1048,7 +1057,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1190,7 +1199,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1201,13 +1210,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD39"/>
+  <dimension ref="A1:AE39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z14" sqref="Z14"/>
+      <selection pane="bottomRight" activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1222,26 +1231,27 @@
     <col min="10" max="10" width="22.21875" style="53" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.5546875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="50.5546875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="35.44140625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="45.21875" style="62" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.33203125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="16.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="35.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="37.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.88671875" style="3"/>
+    <col min="13" max="13" width="8.109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="24.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.5546875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="50.5546875" style="3" customWidth="1"/>
+    <col min="18" max="18" width="35.44140625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="45.21875" style="62" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.33203125" style="3" customWidth="1"/>
+    <col min="29" max="29" width="16.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="35.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="37.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1279,61 +1289,64 @@
         <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="R1" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="S1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="T1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="U1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="V1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="W1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="X1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="X1" s="25" t="s">
+      <c r="Y1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="Z1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="61" t="s">
+      <c r="AA1" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="AA1" s="25" t="s">
+      <c r="AB1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="38" t="s">
+      <c r="AC1" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="AC1" s="30" t="s">
+      <c r="AD1" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="AD1" s="30" t="s">
+      <c r="AE1" s="30" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
@@ -1370,29 +1383,30 @@
       <c r="L2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="8">
+        <f>N2/12</f>
+        <v>9.7753424657534236</v>
+      </c>
+      <c r="N2" s="9">
         <v>117.30410958904109</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="O2" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="P2" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q2" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>107</v>
+      <c r="R2" s="40" t="s">
+        <v>9</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="T2" s="3" t="e">
-        <v>#N/A</v>
+      <c r="T2" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="U2" s="3" t="e">
         <v>#N/A</v>
@@ -1409,23 +1423,26 @@
       <c r="Y2" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z2" s="62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA2" s="3" t="e">
+      <c r="Z2" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA2" s="62" t="e">
         <v>#N/A</v>
       </c>
       <c r="AB2" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AC2" s="31" t="s">
-        <v>9</v>
+      <c r="AC2" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AD2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE2" s="31" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
@@ -1462,12 +1479,13 @@
       <c r="L3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
+        <f t="shared" ref="M3:M39" si="0">N3/12</f>
+        <v>11.268493150684932</v>
+      </c>
+      <c r="N3" s="9">
         <v>135.22191780821919</v>
       </c>
-      <c r="N3" s="3" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="O3" s="3" t="e">
         <v>#N/A</v>
       </c>
@@ -1477,8 +1495,8 @@
       <c r="Q3" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>107</v>
+      <c r="R3" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>107</v>
@@ -1487,37 +1505,40 @@
         <v>107</v>
       </c>
       <c r="U3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="Y3" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="Z3" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA3" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AB3" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC3" s="31" t="s">
-        <v>9</v>
+      <c r="AC3" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AD3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE3" s="31" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>41</v>
       </c>
@@ -1554,62 +1575,66 @@
       <c r="L4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="8">
+        <f t="shared" si="0"/>
+        <v>5.6109589041095882</v>
+      </c>
+      <c r="N4" s="9">
         <v>67.331506849315062</v>
       </c>
-      <c r="N4" s="26" t="s">
+      <c r="O4" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="O4" s="26" t="s">
+      <c r="P4" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="P4" s="39" t="s">
+      <c r="Q4" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="Q4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="T4" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="U4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="V4" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="Y4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="Z4" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA4" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AB4" s="39" t="s">
+      <c r="Z4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA4" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB4" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC4" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="AC4" s="31" t="s">
-        <v>9</v>
-      </c>
       <c r="AD4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE4" s="31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>43</v>
       </c>
@@ -1646,12 +1671,13 @@
       <c r="L5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
+        <f t="shared" si="0"/>
+        <v>14.909589041095892</v>
+      </c>
+      <c r="N5" s="9">
         <v>178.9150684931507</v>
       </c>
-      <c r="N5" s="3" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="O5" s="3" t="e">
         <v>#N/A</v>
       </c>
@@ -1661,8 +1687,8 @@
       <c r="Q5" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="R5" s="3" t="s">
-        <v>107</v>
+      <c r="R5" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>107</v>
@@ -1674,34 +1700,37 @@
         <v>107</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="X5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="Y5" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z5" s="62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA5" s="3" t="e">
+      <c r="Z5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA5" s="62" t="e">
         <v>#N/A</v>
       </c>
       <c r="AB5" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AC5" s="31" t="s">
-        <v>9</v>
+      <c r="AC5" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AD5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE5" s="31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>44</v>
       </c>
@@ -1738,12 +1767,13 @@
       <c r="L6" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0520547945205481</v>
+      </c>
+      <c r="N6" s="9">
         <v>24.624657534246577</v>
       </c>
-      <c r="N6" s="3" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="O6" s="3" t="e">
         <v>#N/A</v>
       </c>
@@ -1753,47 +1783,50 @@
       <c r="Q6" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="R6" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S6" s="26" t="s">
-        <v>107</v>
-      </c>
       <c r="T6" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="U6" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="V6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W6" s="3" t="s">
+      <c r="X6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="X6" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="Y6" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="Z6" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA6" s="3" t="s">
+      <c r="Z6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA6" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AB6" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC6" s="31" t="s">
-        <v>9</v>
+      <c r="AC6" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AD6" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE6" s="31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>45</v>
       </c>
@@ -1830,12 +1863,13 @@
       <c r="L7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="8">
+        <f t="shared" si="0"/>
+        <v>7.1808219178082195</v>
+      </c>
+      <c r="N7" s="9">
         <v>86.169863013698631</v>
       </c>
-      <c r="N7" s="3" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="O7" s="3" t="e">
         <v>#N/A</v>
       </c>
@@ -1869,23 +1903,26 @@
       <c r="Y7" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z7" s="62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA7" s="3" t="e">
+      <c r="Z7" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA7" s="62" t="e">
         <v>#N/A</v>
       </c>
       <c r="AB7" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AC7" s="31" t="s">
-        <v>9</v>
+      <c r="AC7" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AD7" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE7" s="31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>46</v>
       </c>
@@ -1922,23 +1959,24 @@
       <c r="L8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="8">
+        <f t="shared" si="0"/>
+        <v>7.087671232876712</v>
+      </c>
+      <c r="N8" s="9">
         <v>85.052054794520544</v>
       </c>
-      <c r="N8" s="26" t="s">
+      <c r="O8" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="O8" s="26" t="s">
+      <c r="P8" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="P8" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q8" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="R8" s="3" t="e">
-        <v>#N/A</v>
+      <c r="Q8" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R8" s="40" t="s">
+        <v>9</v>
       </c>
       <c r="S8" s="3" t="e">
         <v>#N/A</v>
@@ -1961,23 +1999,26 @@
       <c r="Y8" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z8" s="62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA8" s="3" t="e">
+      <c r="Z8" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA8" s="62" t="e">
         <v>#N/A</v>
       </c>
       <c r="AB8" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AC8" s="31" t="s">
-        <v>9</v>
+      <c r="AC8" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AD8" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE8" s="31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>47</v>
       </c>
@@ -2014,23 +2055,24 @@
       <c r="L9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
+        <f t="shared" si="0"/>
+        <v>2.1863013698630138</v>
+      </c>
+      <c r="N9" s="9">
         <v>26.235616438356164</v>
       </c>
-      <c r="N9" s="26" t="s">
+      <c r="O9" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="O9" s="26" t="s">
+      <c r="P9" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="Q9" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>107</v>
+      <c r="R9" s="40" t="s">
+        <v>9</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>107</v>
@@ -2053,23 +2095,26 @@
       <c r="Y9" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="Z9" s="62" t="s">
+      <c r="Z9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA9" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="AA9" s="3" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="AB9" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AC9" s="31" t="s">
+      <c r="AC9" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD9" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="AD9" s="31" t="s">
+      <c r="AE9" s="31" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>48</v>
       </c>
@@ -2106,23 +2151,24 @@
       <c r="L10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="8">
+        <f t="shared" si="0"/>
+        <v>1.2164383561643837</v>
+      </c>
+      <c r="N10" s="9">
         <v>14.597260273972603</v>
       </c>
-      <c r="N10" s="26" t="s">
+      <c r="O10" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="O10" s="26" t="s">
+      <c r="P10" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="P10" s="26" t="s">
+      <c r="Q10" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="Q10" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>107</v>
+      <c r="R10" s="40" t="s">
+        <v>9</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>107</v>
@@ -2131,37 +2177,40 @@
         <v>107</v>
       </c>
       <c r="U10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="V10" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="W10" s="3" t="s">
         <v>112</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Y10" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="Z10" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA10" s="3" t="e">
-        <v>#N/A</v>
+      <c r="Z10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA10" s="62" t="s">
+        <v>107</v>
       </c>
       <c r="AB10" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AC10" s="31" t="s">
-        <v>9</v>
+      <c r="AC10" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AD10" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE10" s="31" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>49</v>
       </c>
@@ -2198,62 +2247,66 @@
       <c r="L11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0191780821917811</v>
+      </c>
+      <c r="N11" s="9">
         <v>24.230136986301371</v>
       </c>
-      <c r="N11" s="26" t="s">
+      <c r="O11" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="O11" s="26" t="s">
+      <c r="P11" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="Q11" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="R11" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="S11" s="3" t="s">
+      <c r="R11" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="S11" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="T11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T11" s="26" t="s">
-        <v>107</v>
-      </c>
       <c r="U11" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="V11" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="W11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="W11" s="3" t="s">
+      <c r="X11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X11" s="26" t="s">
-        <v>107</v>
-      </c>
       <c r="Y11" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="Z11" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA11" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB11" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC11" s="31" t="s">
-        <v>9</v>
+      <c r="Z11" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA11" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB11" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC11" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AD11" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE11" s="31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>50</v>
       </c>
@@ -2290,23 +2343,24 @@
       <c r="L12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="8">
+        <f t="shared" si="0"/>
+        <v>5.8958904109589048</v>
+      </c>
+      <c r="N12" s="9">
         <v>70.750684931506854</v>
       </c>
-      <c r="N12" s="26" t="s">
+      <c r="O12" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="O12" s="26" t="s">
+      <c r="P12" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="P12" s="26" t="s">
+      <c r="Q12" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="Q12" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="R12" s="26" t="s">
-        <v>107</v>
+      <c r="R12" s="40" t="s">
+        <v>9</v>
       </c>
       <c r="S12" s="26" t="s">
         <v>107</v>
@@ -2329,23 +2383,26 @@
       <c r="Y12" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="Z12" s="62" t="s">
+      <c r="Z12" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA12" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="AA12" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB12" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC12" s="31" t="s">
+      <c r="AB12" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC12" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD12" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="AD12" s="31" t="s">
+      <c r="AE12" s="31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>51</v>
       </c>
@@ -2382,62 +2439,66 @@
       <c r="L13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="8">
+        <f t="shared" si="0"/>
+        <v>3.6630136986301367</v>
+      </c>
+      <c r="N13" s="9">
         <v>43.956164383561642</v>
       </c>
-      <c r="N13" s="26" t="s">
+      <c r="O13" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="O13" s="26" t="s">
+      <c r="P13" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="Q13" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="Q13" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="R13" s="3" t="s">
+      <c r="R13" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="S13" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="T13" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="T13" s="3" t="s">
+      <c r="U13" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="U13" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="V13" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="W13" s="3" t="s">
         <v>117</v>
       </c>
       <c r="X13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y13" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Y13" s="3" t="s">
+      <c r="Z13" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="Z13" s="62" t="s">
+      <c r="AA13" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="AA13" s="3" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="AB13" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AC13" s="31" t="s">
-        <v>9</v>
+      <c r="AC13" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AD13" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE13" s="31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>52</v>
       </c>
@@ -2474,33 +2535,34 @@
       <c r="L14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="8">
+        <f t="shared" si="0"/>
+        <v>5.7945205479452051</v>
+      </c>
+      <c r="N14" s="9">
         <v>69.534246575342465</v>
       </c>
-      <c r="N14" s="26" t="s">
+      <c r="O14" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="O14" s="26" t="s">
+      <c r="P14" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="P14" s="26" t="s">
+      <c r="Q14" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="Q14" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>107</v>
+      <c r="R14" s="40" t="s">
+        <v>9</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>107</v>
       </c>
       <c r="T14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>107</v>
       </c>
@@ -2508,28 +2570,31 @@
         <v>107</v>
       </c>
       <c r="X14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y14" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z14" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA14" s="3" t="e">
-        <v>#N/A</v>
+      <c r="Z14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA14" s="62" t="s">
+        <v>107</v>
       </c>
       <c r="AB14" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AC14" s="31" t="s">
+      <c r="AC14" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD14" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="AD14" s="31" t="s">
+      <c r="AE14" s="31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>53</v>
       </c>
@@ -2566,23 +2631,24 @@
       <c r="L15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="8">
+        <f t="shared" si="0"/>
+        <v>10.887671232876713</v>
+      </c>
+      <c r="N15" s="9">
         <v>130.65205479452055</v>
       </c>
-      <c r="N15" s="26" t="s">
+      <c r="O15" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="O15" s="26" t="s">
+      <c r="P15" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="Q15" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>107</v>
+      <c r="R15" s="40" t="s">
+        <v>9</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>107</v>
@@ -2605,23 +2671,26 @@
       <c r="Y15" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="Z15" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA15" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB15" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC15" s="31" t="s">
-        <v>9</v>
+      <c r="Z15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA15" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC15" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AD15" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE15" s="31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>54</v>
       </c>
@@ -2658,33 +2727,34 @@
       <c r="L16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="8">
+        <f t="shared" si="0"/>
+        <v>14.950684931506849</v>
+      </c>
+      <c r="N16" s="9">
         <v>179.40821917808219</v>
       </c>
-      <c r="N16" s="26" t="s">
+      <c r="O16" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="O16" s="26" t="s">
+      <c r="P16" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="P16" s="26" t="s">
+      <c r="Q16" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="Q16" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>107</v>
+      <c r="R16" s="40" t="s">
+        <v>9</v>
       </c>
       <c r="S16" s="3" t="s">
         <v>107</v>
       </c>
       <c r="T16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="U16" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="U16" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="V16" s="3" t="s">
         <v>107</v>
       </c>
@@ -2692,28 +2762,31 @@
         <v>107</v>
       </c>
       <c r="X16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y16" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Y16" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z16" s="62" t="s">
+      <c r="Z16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA16" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="AA16" s="3" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="AB16" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AC16" s="31" t="s">
-        <v>9</v>
+      <c r="AC16" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AD16" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE16" s="31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>55</v>
       </c>
@@ -2750,23 +2823,24 @@
       <c r="L17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="8">
+        <f t="shared" si="0"/>
+        <v>3.536986301369863</v>
+      </c>
+      <c r="N17" s="9">
         <v>42.443835616438356</v>
       </c>
-      <c r="N17" s="26" t="s">
+      <c r="O17" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="O17" s="26" t="s">
+      <c r="P17" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="Q17" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="Q17" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>107</v>
+      <c r="R17" s="40" t="s">
+        <v>9</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>107</v>
@@ -2783,29 +2857,32 @@
       <c r="W17" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="X17" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z17" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA17" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB17" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC17" s="31" t="s">
-        <v>9</v>
+      <c r="X17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y17" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA17" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC17" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AD17" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE17" s="31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>56</v>
       </c>
@@ -2842,29 +2919,30 @@
       <c r="L18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="8">
+        <f t="shared" si="0"/>
+        <v>15.964383561643835</v>
+      </c>
+      <c r="N18" s="9">
         <v>191.57260273972602</v>
       </c>
-      <c r="N18" s="26" t="s">
+      <c r="O18" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="O18" s="26" t="s">
+      <c r="P18" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="Q18" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="Q18" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>107</v>
+      <c r="R18" s="40" t="s">
+        <v>9</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="T18" s="3" t="e">
-        <v>#N/A</v>
+      <c r="T18" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="U18" s="3" t="e">
         <v>#N/A</v>
@@ -2881,23 +2959,26 @@
       <c r="Y18" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z18" s="62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA18" s="3" t="e">
+      <c r="Z18" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA18" s="62" t="e">
         <v>#N/A</v>
       </c>
       <c r="AB18" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AC18" s="31" t="s">
-        <v>9</v>
+      <c r="AC18" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AD18" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE18" s="31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>57</v>
       </c>
@@ -2934,62 +3015,66 @@
       <c r="L19" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="8">
+        <f t="shared" si="0"/>
+        <v>15.578082191780823</v>
+      </c>
+      <c r="N19" s="9">
         <v>186.93698630136987</v>
       </c>
-      <c r="N19" s="26" t="s">
+      <c r="O19" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="O19" s="26" t="s">
+      <c r="P19" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="Q19" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="Q19" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>107</v>
+      <c r="R19" s="40" t="s">
+        <v>9</v>
       </c>
       <c r="S19" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="T19" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="U19" s="3" t="s">
+      <c r="T19" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="U19" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="V19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V19" s="3" t="s">
+      <c r="W19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W19" s="3" t="s">
+      <c r="X19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="X19" s="26" t="s">
-        <v>107</v>
-      </c>
       <c r="Y19" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="Z19" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA19" s="3" t="s">
+      <c r="Z19" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA19" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AB19" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC19" s="31" t="s">
-        <v>9</v>
+      <c r="AC19" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AD19" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE19" s="31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>58</v>
       </c>
@@ -3026,12 +3111,13 @@
       <c r="L20" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="8">
+        <f t="shared" si="0"/>
+        <v>1.1506849315068493</v>
+      </c>
+      <c r="N20" s="9">
         <v>13.808219178082192</v>
       </c>
-      <c r="N20" s="3" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="O20" s="3" t="e">
         <v>#N/A</v>
       </c>
@@ -3065,23 +3151,26 @@
       <c r="Y20" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z20" s="62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA20" s="3" t="e">
+      <c r="Z20" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA20" s="62" t="e">
         <v>#N/A</v>
       </c>
       <c r="AB20" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AC20" s="31" t="s">
-        <v>9</v>
+      <c r="AC20" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AD20" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE20" s="31" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>59</v>
       </c>
@@ -3118,23 +3207,24 @@
       <c r="L21" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="8">
+        <f t="shared" si="0"/>
+        <v>15.427397260273972</v>
+      </c>
+      <c r="N21" s="9">
         <v>185.12876712328767</v>
       </c>
-      <c r="N21" s="26" t="s">
+      <c r="O21" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="O21" s="26" t="s">
+      <c r="P21" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="Q21" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="Q21" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="R21" s="26" t="s">
-        <v>107</v>
+      <c r="R21" s="40" t="s">
+        <v>9</v>
       </c>
       <c r="S21" s="26" t="s">
         <v>107</v>
@@ -3157,23 +3247,26 @@
       <c r="Y21" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="Z21" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA21" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB21" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC21" s="31" t="s">
-        <v>9</v>
+      <c r="Z21" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA21" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB21" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC21" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AD21" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE21" s="31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>60</v>
       </c>
@@ -3210,62 +3303,66 @@
       <c r="L22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="8">
+        <f t="shared" si="0"/>
+        <v>7.0986301369863014</v>
+      </c>
+      <c r="N22" s="9">
         <v>85.183561643835617</v>
       </c>
-      <c r="N22" s="26" t="s">
+      <c r="O22" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="O22" s="26" t="s">
+      <c r="P22" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Q22" s="35" t="s">
+      <c r="R22" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="S22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="T22" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="U22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="V22" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="W22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="X22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X22" s="3" t="s">
+      <c r="Y22" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z22" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB22" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC22" s="31" t="s">
-        <v>9</v>
+      <c r="Z22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA22" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC22" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AD22" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE22" s="31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>61</v>
       </c>
@@ -3302,23 +3399,24 @@
       <c r="L23" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="8">
+        <f t="shared" si="0"/>
+        <v>7.7835616438356157</v>
+      </c>
+      <c r="N23" s="9">
         <v>93.402739726027391</v>
       </c>
-      <c r="N23" s="26" t="s">
+      <c r="O23" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="O23" s="26" t="s">
+      <c r="P23" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="Q23" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="Q23" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>107</v>
+      <c r="R23" s="40" t="s">
+        <v>9</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>107</v>
@@ -3341,23 +3439,26 @@
       <c r="Y23" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="Z23" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA23" s="3" t="s">
+      <c r="Z23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA23" s="62" t="s">
         <v>107</v>
       </c>
       <c r="AB23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC23" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AC23" s="31" t="s">
-        <v>9</v>
-      </c>
       <c r="AD23" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE23" s="31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="28" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" s="28" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>62</v>
       </c>
@@ -3394,33 +3495,34 @@
       <c r="L24" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="M24" s="15">
+      <c r="M24" s="8">
+        <f t="shared" si="0"/>
+        <v>13.30958904109589</v>
+      </c>
+      <c r="N24" s="15">
         <v>159.71506849315068</v>
       </c>
-      <c r="N24" s="29" t="s">
+      <c r="O24" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="O24" s="29" t="s">
+      <c r="P24" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="P24" s="28" t="s">
+      <c r="Q24" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="Q24" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="R24" s="28" t="s">
-        <v>107</v>
+      <c r="R24" s="41" t="s">
+        <v>9</v>
       </c>
       <c r="S24" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="T24" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="T24" s="28" t="s">
+      <c r="U24" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="U24" s="28" t="s">
-        <v>107</v>
-      </c>
       <c r="V24" s="28" t="s">
         <v>107</v>
       </c>
@@ -3431,25 +3533,28 @@
         <v>107</v>
       </c>
       <c r="Y24" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z24" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="Z24" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA24" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB24" s="37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC24" s="33" t="s">
+      <c r="AA24" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB24" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC24" s="37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD24" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="AD24" s="33" t="s">
+      <c r="AE24" s="33" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>63</v>
       </c>
@@ -3486,23 +3591,24 @@
       <c r="L25" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="M25" s="22">
+      <c r="M25" s="8">
+        <f t="shared" si="0"/>
+        <v>7.279452054794521</v>
+      </c>
+      <c r="N25" s="22">
         <v>87.353424657534248</v>
       </c>
-      <c r="N25" s="26" t="s">
+      <c r="O25" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="O25" s="26" t="s">
+      <c r="P25" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="P25" s="3" t="s">
+      <c r="Q25" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="Q25" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="R25" s="26" t="s">
-        <v>107</v>
+      <c r="R25" s="40" t="s">
+        <v>9</v>
       </c>
       <c r="S25" s="26" t="s">
         <v>107</v>
@@ -3513,35 +3619,38 @@
       <c r="U25" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="V25" s="3" t="s">
+      <c r="V25" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="W25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="W25" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="X25" s="3" t="s">
         <v>107</v>
       </c>
       <c r="Y25" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="Z25" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA25" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB25" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC25" s="32" t="s">
-        <v>9</v>
+      <c r="Z25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA25" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC25" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AD25" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE25" s="32" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>65</v>
       </c>
@@ -3578,12 +3687,13 @@
       <c r="L26" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M26" s="8">
+        <f t="shared" si="0"/>
+        <v>3.5863013698630137</v>
+      </c>
+      <c r="N26" s="9">
         <v>43.035616438356165</v>
       </c>
-      <c r="N26" s="3" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="O26" s="3" t="e">
         <v>#N/A</v>
       </c>
@@ -3593,8 +3703,8 @@
       <c r="Q26" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="R26" s="26" t="s">
-        <v>107</v>
+      <c r="R26" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S26" s="26" t="s">
         <v>107</v>
@@ -3608,32 +3718,35 @@
       <c r="V26" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="W26" s="3" t="s">
+      <c r="W26" s="26" t="s">
         <v>107</v>
       </c>
       <c r="X26" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z26" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA26" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB26" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC26" s="31" t="s">
+      <c r="Z26" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA26" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB26" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC26" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD26" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="AD26" s="31" t="s">
+      <c r="AE26" s="31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>66</v>
       </c>
@@ -3670,23 +3783,24 @@
       <c r="L27" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="M27" s="9">
+      <c r="M27" s="8">
+        <f t="shared" si="0"/>
+        <v>6.1095890410958908</v>
+      </c>
+      <c r="N27" s="9">
         <v>73.31506849315069</v>
       </c>
-      <c r="N27" s="26" t="s">
+      <c r="O27" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="O27" s="26" t="s">
+      <c r="P27" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="P27" s="3" t="s">
+      <c r="Q27" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="Q27" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>107</v>
+      <c r="R27" s="40" t="s">
+        <v>9</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>107</v>
@@ -3698,34 +3812,37 @@
         <v>107</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>112</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Y27" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="Z27" s="62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA27" s="3" t="e">
+      <c r="Z27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA27" s="62" t="e">
         <v>#N/A</v>
       </c>
       <c r="AB27" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AC27" s="31" t="s">
-        <v>9</v>
+      <c r="AC27" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AD27" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE27" s="31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>67</v>
       </c>
@@ -3762,12 +3879,13 @@
       <c r="L28" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M28" s="8">
+        <f t="shared" si="0"/>
+        <v>4.5780821917808217</v>
+      </c>
+      <c r="N28" s="9">
         <v>54.936986301369863</v>
       </c>
-      <c r="N28" s="3" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="O28" s="3" t="e">
         <v>#N/A</v>
       </c>
@@ -3777,10 +3895,10 @@
       <c r="Q28" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="R28" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="S28" s="3" t="s">
+      <c r="R28" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S28" s="26" t="s">
         <v>107</v>
       </c>
       <c r="T28" s="3" t="s">
@@ -3796,28 +3914,31 @@
         <v>107</v>
       </c>
       <c r="X28" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Y28" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z28" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA28" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB28" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC28" s="31" t="s">
-        <v>9</v>
+      <c r="Z28" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA28" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB28" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC28" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AD28" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE28" s="31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>68</v>
       </c>
@@ -3854,12 +3975,13 @@
       <c r="L29" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M29" s="9">
+      <c r="M29" s="8">
+        <f t="shared" si="0"/>
+        <v>13.989041095890412</v>
+      </c>
+      <c r="N29" s="9">
         <v>167.86849315068494</v>
       </c>
-      <c r="N29" s="3" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="O29" s="3" t="e">
         <v>#N/A</v>
       </c>
@@ -3893,23 +4015,26 @@
       <c r="Y29" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z29" s="62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA29" s="3" t="e">
+      <c r="Z29" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA29" s="62" t="e">
         <v>#N/A</v>
       </c>
       <c r="AB29" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AC29" s="31" t="s">
-        <v>9</v>
+      <c r="AC29" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AD29" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE29" s="31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>69</v>
       </c>
@@ -3946,12 +4071,13 @@
       <c r="L30" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M30" s="8">
+        <f t="shared" si="0"/>
+        <v>2.7397260273972599E-3</v>
+      </c>
+      <c r="N30" s="9">
         <v>3.287671232876712E-2</v>
       </c>
-      <c r="N30" s="3" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="O30" s="3" t="e">
         <v>#N/A</v>
       </c>
@@ -3985,23 +4111,26 @@
       <c r="Y30" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z30" s="62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA30" s="3" t="e">
+      <c r="Z30" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA30" s="62" t="e">
         <v>#N/A</v>
       </c>
       <c r="AB30" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AC30" s="31" t="s">
-        <v>9</v>
+      <c r="AC30" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AD30" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE30" s="31" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>71</v>
       </c>
@@ -4038,23 +4167,24 @@
       <c r="L31" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="M31" s="9">
+      <c r="M31" s="8">
+        <f t="shared" si="0"/>
+        <v>4.5890410958904111</v>
+      </c>
+      <c r="N31" s="9">
         <v>55.06849315068493</v>
       </c>
-      <c r="N31" s="26" t="s">
+      <c r="O31" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="O31" s="26" t="s">
+      <c r="P31" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="P31" s="3" t="s">
+      <c r="Q31" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Q31" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="R31" s="26" t="s">
-        <v>107</v>
+      <c r="R31" s="40" t="s">
+        <v>9</v>
       </c>
       <c r="S31" s="26" t="s">
         <v>107</v>
@@ -4068,32 +4198,35 @@
       <c r="V31" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="W31" s="3" t="s">
+      <c r="W31" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="X31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="X31" s="3" t="s">
+      <c r="Y31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Y31" s="3" t="s">
+      <c r="Z31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Z31" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA31" s="26" t="s">
+      <c r="AA31" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB31" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AB31" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC31" s="31" t="s">
-        <v>9</v>
+      <c r="AC31" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AD31" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE31" s="31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>72</v>
       </c>
@@ -4130,23 +4263,24 @@
       <c r="L32" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M32" s="8">
+        <f t="shared" si="0"/>
+        <v>1.3232876712328767</v>
+      </c>
+      <c r="N32" s="9">
         <v>15.87945205479452</v>
       </c>
-      <c r="N32" s="26" t="s">
+      <c r="O32" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="O32" s="26" t="s">
+      <c r="P32" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="P32" s="3" t="s">
+      <c r="Q32" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="Q32" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="R32" s="26" t="s">
-        <v>107</v>
+      <c r="R32" s="40" t="s">
+        <v>9</v>
       </c>
       <c r="S32" s="26" t="s">
         <v>107</v>
@@ -4169,23 +4303,26 @@
       <c r="Y32" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="Z32" s="62" t="s">
+      <c r="Z32" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA32" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="AA32" s="3" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="AB32" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AC32" s="31" t="s">
-        <v>9</v>
+      <c r="AC32" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AD32" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE32" s="31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>73</v>
       </c>
@@ -4222,62 +4359,66 @@
       <c r="L33" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M33" s="9">
+      <c r="M33" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9123287671232878</v>
+      </c>
+      <c r="N33" s="9">
         <v>22.947945205479453</v>
       </c>
-      <c r="N33" s="26" t="s">
+      <c r="O33" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="O33" s="26" t="s">
+      <c r="P33" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="P33" s="3" t="s">
+      <c r="Q33" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="Q33" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="R33" s="36" t="s">
+      <c r="R33" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="S33" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>107</v>
       </c>
       <c r="U33" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="V33" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="V33" s="36" t="s">
-        <v>112</v>
       </c>
       <c r="W33" s="36" t="s">
         <v>112</v>
       </c>
       <c r="X33" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y33" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z33" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA33" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB33" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC33" s="31" t="s">
-        <v>9</v>
+        <v>112</v>
+      </c>
+      <c r="Y33" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z33" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA33" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB33" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC33" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AD33" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE33" s="31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>74</v>
       </c>
@@ -4314,24 +4455,25 @@
       <c r="L34" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M34" s="9">
+      <c r="M34" s="8">
+        <f t="shared" si="0"/>
+        <v>2.1013698630136988</v>
+      </c>
+      <c r="N34" s="9">
         <v>25.216438356164385</v>
       </c>
-      <c r="N34" s="26" t="s">
+      <c r="O34" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="O34" s="26" t="s">
+      <c r="P34" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="P34" s="3" t="s">
+      <c r="Q34" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="Q34" s="35" t="s">
+      <c r="R34" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="R34" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="S34" s="3" t="s">
         <v>107</v>
       </c>
@@ -4339,37 +4481,40 @@
         <v>107</v>
       </c>
       <c r="U34" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="V34" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="V34" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="W34" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="X34" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y34" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z34" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA34" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB34" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC34" s="31" t="s">
-        <v>9</v>
+      <c r="X34" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y34" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z34" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA34" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB34" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC34" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AD34" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE34" s="31" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>75</v>
       </c>
@@ -4406,12 +4551,13 @@
       <c r="L35" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M35" s="9">
+      <c r="M35" s="8">
+        <f t="shared" si="0"/>
+        <v>7.904109589041096</v>
+      </c>
+      <c r="N35" s="9">
         <v>94.849315068493155</v>
       </c>
-      <c r="N35" s="3" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="O35" s="3" t="e">
         <v>#N/A</v>
       </c>
@@ -4421,12 +4567,12 @@
       <c r="Q35" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="R35" s="3" t="s">
+      <c r="R35" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S35" s="26" t="s">
-        <v>107</v>
-      </c>
       <c r="T35" s="26" t="s">
         <v>107</v>
       </c>
@@ -4445,23 +4591,26 @@
       <c r="Y35" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="Z35" s="62" t="s">
+      <c r="Z35" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA35" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="AA35" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB35" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC35" s="31" t="s">
-        <v>9</v>
+      <c r="AB35" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC35" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AD35" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE35" s="31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>76</v>
       </c>
@@ -4498,23 +4647,24 @@
       <c r="L36" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M36" s="8">
+        <f t="shared" si="0"/>
+        <v>5.0191780821917806</v>
+      </c>
+      <c r="N36" s="9">
         <v>60.230136986301368</v>
       </c>
-      <c r="N36" s="26" t="s">
+      <c r="O36" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="O36" s="26" t="s">
+      <c r="P36" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="P36" s="3" t="s">
+      <c r="Q36" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="Q36" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="R36" s="3" t="s">
-        <v>107</v>
+      <c r="R36" s="40" t="s">
+        <v>9</v>
       </c>
       <c r="S36" s="3" t="s">
         <v>107</v>
@@ -4537,23 +4687,26 @@
       <c r="Y36" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="Z36" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA36" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB36" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC36" s="31" t="s">
-        <v>9</v>
+      <c r="Z36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA36" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC36" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AD36" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE36" s="31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>77</v>
       </c>
@@ -4590,32 +4743,33 @@
       <c r="L37" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M37" s="9">
+      <c r="M37" s="8">
+        <f t="shared" si="0"/>
+        <v>6.2465753424657535</v>
+      </c>
+      <c r="N37" s="9">
         <v>74.958904109589042</v>
       </c>
-      <c r="N37" s="26" t="s">
+      <c r="O37" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="O37" s="26" t="s">
+      <c r="P37" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="P37" s="3" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="Q37" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="R37" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="S37" s="3" t="e">
-        <v>#N/A</v>
+      <c r="R37" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S37" s="26" t="s">
+        <v>107</v>
       </c>
       <c r="T37" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="U37" s="26" t="s">
-        <v>107</v>
+      <c r="U37" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="V37" s="26" t="s">
         <v>107</v>
@@ -4626,26 +4780,29 @@
       <c r="X37" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="Y37" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z37" s="62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA37" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB37" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC37" s="31" t="s">
-        <v>9</v>
+      <c r="Y37" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z37" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA37" s="62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB37" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC37" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AD37" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE37" s="31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>78</v>
       </c>
@@ -4682,12 +4839,13 @@
       <c r="L38" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="M38" s="9">
+      <c r="M38" s="8">
+        <f t="shared" si="0"/>
+        <v>6.2027397260273966</v>
+      </c>
+      <c r="N38" s="9">
         <v>74.432876712328763</v>
       </c>
-      <c r="N38" s="3" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="O38" s="3" t="e">
         <v>#N/A</v>
       </c>
@@ -4697,8 +4855,8 @@
       <c r="Q38" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="R38" s="26" t="s">
-        <v>107</v>
+      <c r="R38" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S38" s="26" t="s">
         <v>107</v>
@@ -4706,38 +4864,41 @@
       <c r="T38" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="U38" s="3" t="s">
+      <c r="U38" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="V38" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V38" s="26" t="s">
-        <v>107</v>
-      </c>
       <c r="W38" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="X38" s="3" t="s">
+      <c r="X38" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y38" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Y38" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z38" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA38" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB38" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC38" s="31" t="s">
-        <v>9</v>
+      <c r="Z38" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA38" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB38" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC38" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AD38" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE38" s="31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:30" s="28" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:31" s="28" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>79</v>
       </c>
@@ -4774,24 +4935,25 @@
       <c r="L39" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M39" s="15">
+      <c r="M39" s="8">
+        <f t="shared" si="0"/>
+        <v>2.3479452054794518</v>
+      </c>
+      <c r="N39" s="15">
         <v>28.175342465753424</v>
       </c>
-      <c r="N39" s="29" t="s">
+      <c r="O39" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="O39" s="29" t="s">
+      <c r="P39" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="P39" s="28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q39" s="42" t="s">
+      <c r="Q39" s="28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R39" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="R39" s="28" t="s">
-        <v>107</v>
-      </c>
       <c r="S39" s="28" t="s">
         <v>107</v>
       </c>
@@ -4799,38 +4961,41 @@
         <v>107</v>
       </c>
       <c r="U39" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="V39" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="V39" s="28" t="s">
-        <v>107</v>
-      </c>
       <c r="W39" s="28" t="s">
         <v>107</v>
       </c>
       <c r="X39" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y39" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="Y39" s="28" t="s">
+      <c r="Z39" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="Z39" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA39" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB39" s="42" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC39" s="33" t="s">
+      <c r="AA39" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB39" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC39" s="42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD39" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="AD39" s="33" t="s">
+      <c r="AE39" s="33" t="s">
         <v>143</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="R1:AB1">
+  <conditionalFormatting sqref="S1:AC1">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"nd"</formula>
     </cfRule>
